--- a/flows/SPHY_fund_flow_data.xlsx
+++ b/flows/SPHY_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2946"/>
+  <dimension ref="A1:B2958"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29895,6 +29895,126 @@
         <v>-41.99477</v>
       </c>
     </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2948" t="n">
+        <v>93.33282</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2949" t="n">
+        <v>-25.550978</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2950" t="n">
+        <v>-20.919357</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2953" t="n">
+        <v>62.97243</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2954" t="n">
+        <v>-53.723183</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2955" t="n">
+        <v>-11.672768</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2956" t="n">
+        <v>4.67021</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2957" t="n">
+        <v>9.347156</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2958" t="n">
+        <v>44.30395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
